--- a/biology/Histoire de la zoologie et de la botanique/John_St._Aubyn_(1758-1839)/John_St._Aubyn_(1758-1839).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_St._Aubyn_(1758-1839)/John_St._Aubyn_(1758-1839).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John St Aubyn (17 mai 1758 - 10 août 1839), 5e baronnet (en), est un homme politique britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haut-shérif de Cornwall depuis 1780, il est membre de la Chambre des communes de 1784 à 1790, puis de 1807 à 1812.
 Collectionneur de fossiles, il est élu membre de la Royal Society en 1797.
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Sir John St Aubyn, 5th Baronet » (voir la liste des auteurs).</t>
         </is>
